--- a/all_prayer_time.xlsx
+++ b/all_prayer_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python Codes\اوقات الصلاة\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\all git hub\prayer-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897F628-AB0B-4B9B-A1D3-DF972EB97421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C888AA83-B365-44BA-A8C3-E88031D5583A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6F5E584B-D523-4422-AB5A-67C228DADAB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F5E584B-D523-4422-AB5A-67C228DADAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_prayer" sheetId="1" r:id="rId1"/>
@@ -4824,21 +4824,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A722EC38-FC15-4432-AF05-6C6523C64D02}">
   <dimension ref="A1:BE366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="19.28515625" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.22083333333333333</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0.22083333333333333</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.22083333333333333</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.22083333333333333</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.22013888888888888</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.22013888888888888</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.21944444444444444</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.21944444444444444</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.21944444444444444</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.21875</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.21875</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.21805555555555556</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.21736111111111112</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.21736111111111112</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.21666666666666667</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.21666666666666667</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0.21597222222222223</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.21527777777777779</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.21458333333333332</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.21458333333333332</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.21388888888888888</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.21319444444444444</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.21249999999999999</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.21249999999999999</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.21180555555555555</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.21111111111111111</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.21041666666666667</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.20972222222222223</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.20902777777777778</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.2076388888888889</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.20694444444444443</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.20624999999999999</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.20555555555555555</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.2048611111111111</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.20416666666666666</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.20347222222222222</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.20277777777777778</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.20208333333333334</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.2013888888888889</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.20069444444444445</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.2</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.1986111111111111</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.19722222222222222</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.19652777777777777</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.19583333333333333</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.19444444444444445</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.19375000000000001</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.19305555555555556</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.19236111111111112</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.19166666666666668</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.19027777777777777</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.18958333333333333</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.18888888888888888</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.1875</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.18680555555555556</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.18611111111111112</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.18472222222222223</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.18402777777777779</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.18333333333333332</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.18263888888888888</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.18124999999999999</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.18055555555555555</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.17986111111111111</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.17847222222222223</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.17777777777777778</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.1763888888888889</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.17569444444444443</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.17291666666666666</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.17083333333333334</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.1701388888888889</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.16944444444444445</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.16805555555555557</v>
       </c>
@@ -21632,7 +21632,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.1673611111111111</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.16527777777777777</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.16458333333333333</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.16388888888888889</v>
       </c>
@@ -22452,7 +22452,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.16250000000000001</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.16180555555555556</v>
       </c>
@@ -22780,7 +22780,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.16111111111111112</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.15972222222222221</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.15902777777777777</v>
       </c>
@@ -23272,7 +23272,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.15833333333333333</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.15763888888888888</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.15625</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.19722222222222222</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.19652777777777777</v>
       </c>
@@ -24092,7 +24092,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.19513888888888889</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.19444444444444445</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.19375000000000001</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.19305555555555556</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.19236111111111112</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.19097222222222221</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.19027777777777777</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.18958333333333333</v>
       </c>
@@ -25404,7 +25404,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.18888888888888888</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.18819444444444444</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.1875</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.18680555555555556</v>
       </c>
@@ -26060,7 +26060,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.18611111111111112</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.18541666666666667</v>
       </c>
@@ -26388,7 +26388,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.18472222222222223</v>
       </c>
@@ -26552,7 +26552,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.18402777777777779</v>
       </c>
@@ -26716,7 +26716,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.18333333333333332</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.18263888888888888</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.18194444444444444</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.18124999999999999</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.18055555555555555</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.17986111111111111</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.17916666666666667</v>
       </c>
@@ -27864,7 +27864,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.17916666666666667</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.17847222222222223</v>
       </c>
@@ -28192,7 +28192,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.17777777777777778</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -28684,7 +28684,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.1763888888888889</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.17569444444444443</v>
       </c>
@@ -29012,7 +29012,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.17569444444444443</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -29340,7 +29340,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.17430555555555555</v>
       </c>
@@ -29668,7 +29668,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -29832,7 +29832,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -29996,7 +29996,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -30160,7 +30160,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.17291666666666666</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.17291666666666666</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.17291666666666666</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -30825,7 +30825,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -31159,7 +31159,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -31326,7 +31326,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -31490,7 +31490,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -31818,7 +31818,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -31982,7 +31982,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -32146,7 +32146,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -32310,7 +32310,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -32474,7 +32474,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -32802,7 +32802,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.17152777777777778</v>
       </c>
@@ -32966,7 +32966,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -33130,7 +33130,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -33294,7 +33294,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.17222222222222222</v>
       </c>
@@ -33622,7 +33622,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.17291666666666666</v>
       </c>
@@ -33786,7 +33786,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.17291666666666666</v>
       </c>
@@ -33950,7 +33950,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.17291666666666666</v>
       </c>
@@ -34114,7 +34114,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -34442,7 +34442,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -34606,7 +34606,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.17430555555555555</v>
       </c>
@@ -34770,7 +34770,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.17430555555555555</v>
       </c>
@@ -34934,7 +34934,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.17569444444444443</v>
       </c>
@@ -35262,7 +35262,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.17569444444444443</v>
       </c>
@@ -35426,7 +35426,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.1763888888888889</v>
       </c>
@@ -35593,7 +35593,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.1763888888888889</v>
       </c>
@@ -35757,7 +35757,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -35921,7 +35921,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.17777777777777778</v>
       </c>
@@ -36085,7 +36085,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.17777777777777778</v>
       </c>
@@ -36249,7 +36249,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.17847222222222223</v>
       </c>
@@ -36413,7 +36413,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.17916666666666667</v>
       </c>
@@ -36577,7 +36577,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.17916666666666667</v>
       </c>
@@ -36741,7 +36741,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.17986111111111111</v>
       </c>
@@ -36905,7 +36905,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.18055555555555555</v>
       </c>
@@ -37069,7 +37069,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.18124999999999999</v>
       </c>
@@ -37233,7 +37233,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.18194444444444444</v>
       </c>
@@ -37397,7 +37397,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.18194444444444444</v>
       </c>
@@ -37561,7 +37561,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.18263888888888888</v>
       </c>
@@ -37725,7 +37725,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.18333333333333332</v>
       </c>
@@ -37889,7 +37889,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.18402777777777779</v>
       </c>
@@ -38053,7 +38053,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.18472222222222223</v>
       </c>
@@ -38217,7 +38217,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.18541666666666667</v>
       </c>
@@ -38381,7 +38381,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.18541666666666667</v>
       </c>
@@ -38545,7 +38545,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.18611111111111112</v>
       </c>
@@ -38709,7 +38709,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.18680555555555556</v>
       </c>
@@ -38873,7 +38873,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.1875</v>
       </c>
@@ -39040,7 +39040,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.18819444444444444</v>
       </c>
@@ -39204,7 +39204,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.18888888888888888</v>
       </c>
@@ -39368,7 +39368,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.18958333333333333</v>
       </c>
@@ -39532,7 +39532,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.19027777777777777</v>
       </c>
@@ -39696,7 +39696,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.19097222222222221</v>
       </c>
@@ -39860,7 +39860,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.19097222222222221</v>
       </c>
@@ -40024,7 +40024,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.19166666666666668</v>
       </c>
@@ -40188,7 +40188,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.19236111111111112</v>
       </c>
@@ -40352,7 +40352,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.19305555555555556</v>
       </c>
@@ -40516,7 +40516,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.19375000000000001</v>
       </c>
@@ -40680,7 +40680,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.19444444444444445</v>
       </c>
@@ -40844,7 +40844,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.19513888888888889</v>
       </c>
@@ -41008,7 +41008,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.19583333333333333</v>
       </c>
@@ -41172,7 +41172,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.19652777777777777</v>
       </c>
@@ -41336,7 +41336,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.19722222222222222</v>
       </c>
@@ -41500,7 +41500,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.19722222222222222</v>
       </c>
@@ -41664,7 +41664,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -41828,7 +41828,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.1986111111111111</v>
       </c>
@@ -41992,7 +41992,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.19930555555555557</v>
       </c>
@@ -42156,7 +42156,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.2</v>
       </c>
@@ -42320,7 +42320,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.20069444444444445</v>
       </c>
@@ -42484,7 +42484,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.2013888888888889</v>
       </c>
@@ -42648,7 +42648,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.20208333333333334</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.20208333333333334</v>
       </c>
@@ -42976,7 +42976,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.20277777777777778</v>
       </c>
@@ -43140,7 +43140,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.20347222222222222</v>
       </c>
@@ -43304,7 +43304,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.20416666666666666</v>
       </c>
@@ -43468,7 +43468,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.2048611111111111</v>
       </c>
@@ -43632,7 +43632,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.20555555555555555</v>
       </c>
@@ -43796,7 +43796,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.20555555555555555</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.20624999999999999</v>
       </c>
@@ -44124,7 +44124,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.20694444444444443</v>
       </c>
@@ -44288,7 +44288,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.2076388888888889</v>
       </c>
@@ -44452,7 +44452,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.2076388888888889</v>
       </c>
@@ -44616,7 +44616,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -44780,7 +44780,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.20902777777777778</v>
       </c>
@@ -44944,7 +44944,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.20972222222222223</v>
       </c>
@@ -45108,7 +45108,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.20972222222222223</v>
       </c>
@@ -45272,7 +45272,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.21041666666666667</v>
       </c>
@@ -45436,7 +45436,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.21111111111111111</v>
       </c>
@@ -45603,7 +45603,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.21180555555555555</v>
       </c>
@@ -45767,7 +45767,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.21180555555555555</v>
       </c>
@@ -45931,7 +45931,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.21249999999999999</v>
       </c>
@@ -46095,7 +46095,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.21319444444444444</v>
       </c>
@@ -46259,7 +46259,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.21388888888888888</v>
       </c>
@@ -46423,7 +46423,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.21388888888888888</v>
       </c>
@@ -46587,7 +46587,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.21458333333333332</v>
       </c>
@@ -46751,7 +46751,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.21527777777777779</v>
       </c>
@@ -46915,7 +46915,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.21527777777777779</v>
       </c>
@@ -47079,7 +47079,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.21597222222222223</v>
       </c>
@@ -47243,7 +47243,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.21666666666666667</v>
       </c>
@@ -47407,7 +47407,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.21666666666666667</v>
       </c>
@@ -47571,7 +47571,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.21736111111111112</v>
       </c>
@@ -47735,7 +47735,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.21805555555555556</v>
       </c>
@@ -47899,7 +47899,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.21805555555555556</v>
       </c>
@@ -48063,7 +48063,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.21875</v>
       </c>
@@ -48227,7 +48227,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.21875</v>
       </c>
@@ -48391,7 +48391,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.21944444444444444</v>
       </c>
@@ -48555,7 +48555,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.22013888888888888</v>
       </c>
@@ -48719,7 +48719,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.22013888888888888</v>
       </c>
@@ -48883,7 +48883,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.22083333333333333</v>
       </c>
@@ -49047,7 +49047,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -49211,7 +49211,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.22152777777777777</v>
       </c>
@@ -49375,7 +49375,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -49539,7 +49539,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -49703,7 +49703,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.22291666666666668</v>
       </c>
@@ -49867,7 +49867,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.22361111111111112</v>
       </c>
@@ -50031,7 +50031,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.22361111111111112</v>
       </c>
@@ -50195,7 +50195,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.22430555555555556</v>
       </c>
@@ -50359,7 +50359,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.22430555555555556</v>
       </c>
@@ -50523,7 +50523,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.22500000000000001</v>
       </c>
@@ -50687,7 +50687,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.22569444444444445</v>
       </c>
@@ -50851,7 +50851,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.22569444444444445</v>
       </c>
@@ -51015,7 +51015,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.22638888888888889</v>
       </c>
@@ -51179,7 +51179,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.22638888888888889</v>
       </c>
@@ -51343,7 +51343,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.22708333333333333</v>
       </c>
@@ -51507,7 +51507,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.22777777777777777</v>
       </c>
@@ -51671,7 +51671,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.22777777777777777</v>
       </c>
@@ -51835,7 +51835,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.22847222222222222</v>
       </c>
@@ -51999,7 +51999,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.22847222222222222</v>
       </c>
@@ -52163,7 +52163,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -52327,7 +52327,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.2298611111111111</v>
       </c>
@@ -52491,7 +52491,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.2298611111111111</v>
       </c>
@@ -52655,7 +52655,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.23055555555555557</v>
       </c>
@@ -52819,7 +52819,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.23055555555555557</v>
       </c>
@@ -52983,7 +52983,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.23125000000000001</v>
       </c>
@@ -53147,7 +53147,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.23194444444444445</v>
       </c>
@@ -53311,7 +53311,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.23194444444444445</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.2326388888888889</v>
       </c>
@@ -53639,7 +53639,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.23333333333333334</v>
       </c>
@@ -53803,7 +53803,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.23333333333333334</v>
       </c>
@@ -53967,7 +53967,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.23402777777777778</v>
       </c>
@@ -54131,7 +54131,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.23402777777777778</v>
       </c>
@@ -54295,7 +54295,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.23472222222222222</v>
       </c>
@@ -54459,7 +54459,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.23541666666666666</v>
       </c>
@@ -54623,7 +54623,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.23541666666666666</v>
       </c>
@@ -54787,7 +54787,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.19444444444444445</v>
       </c>
@@ -54951,7 +54951,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.19513888888888889</v>
       </c>
@@ -55115,7 +55115,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.19513888888888889</v>
       </c>
@@ -55279,7 +55279,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.19583333333333333</v>
       </c>
@@ -55443,7 +55443,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.19652777777777777</v>
       </c>
@@ -55607,7 +55607,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.19652777777777777</v>
       </c>
@@ -55771,7 +55771,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.19722222222222222</v>
       </c>
@@ -55935,7 +55935,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -56099,7 +56099,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -56263,7 +56263,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.1986111111111111</v>
       </c>
@@ -56427,7 +56427,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.19930555555555557</v>
       </c>
@@ -56591,7 +56591,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.19930555555555557</v>
       </c>
@@ -56755,7 +56755,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.2</v>
       </c>
@@ -56919,7 +56919,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.20069444444444445</v>
       </c>
@@ -57083,7 +57083,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.20069444444444445</v>
       </c>
@@ -57247,7 +57247,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.2013888888888889</v>
       </c>
@@ -57411,7 +57411,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.20208333333333334</v>
       </c>
@@ -57575,7 +57575,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.20277777777777778</v>
       </c>
@@ -57739,7 +57739,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.20277777777777778</v>
       </c>
@@ -57903,7 +57903,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.20347222222222222</v>
       </c>
@@ -58067,7 +58067,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.20416666666666666</v>
       </c>
@@ -58231,7 +58231,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.20416666666666666</v>
       </c>
@@ -58395,7 +58395,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.2048611111111111</v>
       </c>
@@ -58559,7 +58559,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.20555555555555555</v>
       </c>
@@ -58723,7 +58723,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.20555555555555555</v>
       </c>
@@ -58890,7 +58890,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.20624999999999999</v>
       </c>
@@ -59054,7 +59054,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.20694444444444443</v>
       </c>
@@ -59218,7 +59218,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.2076388888888889</v>
       </c>
@@ -59382,7 +59382,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.2076388888888889</v>
       </c>
@@ -59546,7 +59546,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -59710,7 +59710,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.20902777777777778</v>
       </c>
@@ -59874,7 +59874,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.20902777777777778</v>
       </c>
@@ -60038,7 +60038,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.20972222222222223</v>
       </c>
@@ -60202,7 +60202,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.21041666666666667</v>
       </c>
@@ -60366,7 +60366,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.21041666666666667</v>
       </c>
@@ -60530,7 +60530,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.21111111111111111</v>
       </c>
@@ -60694,7 +60694,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.21180555555555555</v>
       </c>
@@ -60858,7 +60858,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.21180555555555555</v>
       </c>
@@ -61022,7 +61022,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.21249999999999999</v>
       </c>
@@ -61186,7 +61186,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.21319444444444444</v>
       </c>
@@ -61350,7 +61350,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.21319444444444444</v>
       </c>
@@ -61514,7 +61514,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.21388888888888888</v>
       </c>
@@ -61678,7 +61678,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.21458333333333332</v>
       </c>
@@ -61842,7 +61842,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.21458333333333332</v>
       </c>
@@ -62006,7 +62006,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.21527777777777779</v>
       </c>
@@ -62170,7 +62170,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.21527777777777779</v>
       </c>
@@ -62334,7 +62334,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.21597222222222223</v>
       </c>
@@ -62498,7 +62498,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.21666666666666667</v>
       </c>
@@ -62662,7 +62662,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.21666666666666667</v>
       </c>
@@ -62826,7 +62826,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.21736111111111112</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.21736111111111112</v>
       </c>
@@ -63154,7 +63154,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.21805555555555556</v>
       </c>
@@ -63321,7 +63321,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.21805555555555556</v>
       </c>
@@ -63485,7 +63485,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.21875</v>
       </c>
@@ -63649,7 +63649,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.21875</v>
       </c>
@@ -63813,7 +63813,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.21944444444444444</v>
       </c>
@@ -63977,7 +63977,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.21944444444444444</v>
       </c>
@@ -64144,7 +64144,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.21944444444444444</v>
       </c>
@@ -64308,7 +64308,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.22013888888888888</v>
       </c>
@@ -64475,7 +64475,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.22013888888888888</v>
       </c>
@@ -64639,7 +64639,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.22083333333333333</v>
       </c>
@@ -64803,7 +64803,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.22083333333333333</v>
       </c>
